--- a/transformacion/staging/depurado/stg_actividades_poai_2025_depurado.xlsx
+++ b/transformacion/staging/depurado/stg_actividades_poai_2025_depurado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="251">
   <si>
     <t>N°</t>
   </si>
@@ -395,6 +395,9 @@
 Soporte móvil para pantallas de hasta 85'' pulgadas - AVA1800.
 Computador de enseñanza V14 G4
 Banco de Recursos</t>
+  </si>
+  <si>
+    <t>Bono redimible de $ 3'000,000 de pesos en  insumos didactivos que escoge cada IE</t>
   </si>
   <si>
     <t>EVIDENCIAS</t>
@@ -1246,31 +1249,31 @@
         <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1305,31 +1308,31 @@
         <v>108</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1364,31 +1367,31 @@
         <v>108</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1423,31 +1426,31 @@
         <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1482,31 +1485,31 @@
         <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1541,31 +1544,31 @@
         <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1600,31 +1603,31 @@
         <v>108</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1659,31 +1662,31 @@
         <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1718,31 +1721,31 @@
         <v>108</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1777,31 +1780,31 @@
         <v>108</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1836,31 +1839,31 @@
         <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1895,31 +1898,31 @@
         <v>108</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1954,31 +1957,31 @@
         <v>108</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2013,31 +2016,31 @@
         <v>108</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2072,31 +2075,31 @@
         <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2131,31 +2134,31 @@
         <v>108</v>
       </c>
       <c r="I17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2190,31 +2193,31 @@
         <v>118</v>
       </c>
       <c r="I18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2249,31 +2252,31 @@
         <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2308,31 +2311,31 @@
         <v>108</v>
       </c>
       <c r="I20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2367,31 +2370,31 @@
         <v>108</v>
       </c>
       <c r="I21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2426,31 +2429,31 @@
         <v>108</v>
       </c>
       <c r="I22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2485,31 +2488,31 @@
         <v>108</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2544,31 +2547,31 @@
         <v>108</v>
       </c>
       <c r="I24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2603,31 +2606,31 @@
         <v>108</v>
       </c>
       <c r="I25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2662,31 +2665,31 @@
         <v>108</v>
       </c>
       <c r="I26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -2721,31 +2724,31 @@
         <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -2780,31 +2783,31 @@
         <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -2839,31 +2842,31 @@
         <v>108</v>
       </c>
       <c r="I29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2898,31 +2901,31 @@
         <v>108</v>
       </c>
       <c r="I30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -2957,31 +2960,31 @@
         <v>108</v>
       </c>
       <c r="I31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -3016,31 +3019,31 @@
         <v>108</v>
       </c>
       <c r="I32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -3075,31 +3078,31 @@
         <v>108</v>
       </c>
       <c r="I33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -3134,31 +3137,31 @@
         <v>108</v>
       </c>
       <c r="I34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -3193,31 +3196,31 @@
         <v>108</v>
       </c>
       <c r="I35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -3252,31 +3255,31 @@
         <v>108</v>
       </c>
       <c r="I36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -3311,31 +3314,31 @@
         <v>108</v>
       </c>
       <c r="I37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -3370,31 +3373,31 @@
         <v>108</v>
       </c>
       <c r="I38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -3429,31 +3432,31 @@
         <v>108</v>
       </c>
       <c r="I39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -3488,31 +3491,31 @@
         <v>108</v>
       </c>
       <c r="I40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -3547,31 +3550,31 @@
         <v>108</v>
       </c>
       <c r="I41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -3591,46 +3594,46 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="H42" t="s">
         <v>108</v>
       </c>
       <c r="I42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q42" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R42">
         <v>0</v>
@@ -3665,31 +3668,31 @@
         <v>108</v>
       </c>
       <c r="I43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O43" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -3724,31 +3727,31 @@
         <v>108</v>
       </c>
       <c r="I44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R44">
         <v>0</v>
@@ -3783,31 +3786,31 @@
         <v>108</v>
       </c>
       <c r="I45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O45" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R45">
         <v>0</v>
@@ -3842,31 +3845,31 @@
         <v>108</v>
       </c>
       <c r="I46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R46">
         <v>0</v>
@@ -3901,31 +3904,31 @@
         <v>108</v>
       </c>
       <c r="I47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M47" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N47" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q47" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R47">
         <v>0</v>
@@ -3960,31 +3963,31 @@
         <v>108</v>
       </c>
       <c r="I48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R48">
         <v>0</v>
@@ -4019,31 +4022,31 @@
         <v>108</v>
       </c>
       <c r="I49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R49">
         <v>0</v>
@@ -4078,31 +4081,31 @@
         <v>108</v>
       </c>
       <c r="I50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R50">
         <v>0</v>
@@ -4137,31 +4140,31 @@
         <v>108</v>
       </c>
       <c r="I51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4196,31 +4199,31 @@
         <v>108</v>
       </c>
       <c r="I52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q52" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R52">
         <v>0</v>
@@ -4255,31 +4258,31 @@
         <v>108</v>
       </c>
       <c r="I53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N53" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q53" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R53">
         <v>0</v>
@@ -4314,31 +4317,31 @@
         <v>108</v>
       </c>
       <c r="I54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K54" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M54" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N54" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q54" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R54">
         <v>0</v>
@@ -4373,31 +4376,31 @@
         <v>108</v>
       </c>
       <c r="I55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O55" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -4432,31 +4435,31 @@
         <v>108</v>
       </c>
       <c r="I56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K56" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -4491,31 +4494,31 @@
         <v>108</v>
       </c>
       <c r="I57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q57" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -4550,31 +4553,31 @@
         <v>108</v>
       </c>
       <c r="I58" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -4609,31 +4612,31 @@
         <v>108</v>
       </c>
       <c r="I59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -4668,31 +4671,31 @@
         <v>108</v>
       </c>
       <c r="I60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N60" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q60" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -4727,31 +4730,31 @@
         <v>108</v>
       </c>
       <c r="I61" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M61" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N61" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O61" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -4780,37 +4783,37 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H62" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I62" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q62" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -4845,31 +4848,31 @@
         <v>108</v>
       </c>
       <c r="I63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -4904,31 +4907,31 @@
         <v>108</v>
       </c>
       <c r="I64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -4963,31 +4966,31 @@
         <v>108</v>
       </c>
       <c r="I65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -5022,31 +5025,31 @@
         <v>108</v>
       </c>
       <c r="I66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q66" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -5081,31 +5084,31 @@
         <v>108</v>
       </c>
       <c r="I67" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O67" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -5140,31 +5143,31 @@
         <v>108</v>
       </c>
       <c r="I68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O68" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q68" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R68">
         <v>0</v>
@@ -5199,31 +5202,31 @@
         <v>108</v>
       </c>
       <c r="I69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R69">
         <v>0</v>
@@ -5258,31 +5261,31 @@
         <v>108</v>
       </c>
       <c r="I70" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R70">
         <v>0</v>
@@ -5317,31 +5320,31 @@
         <v>108</v>
       </c>
       <c r="I71" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -5376,31 +5379,31 @@
         <v>108</v>
       </c>
       <c r="I72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K72" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L72" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -5435,31 +5438,31 @@
         <v>108</v>
       </c>
       <c r="I73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q73" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R73">
         <v>0</v>
@@ -5494,31 +5497,31 @@
         <v>108</v>
       </c>
       <c r="I74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q74" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -5553,31 +5556,31 @@
         <v>108</v>
       </c>
       <c r="I75" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q75" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R75">
         <v>0</v>
@@ -5612,31 +5615,31 @@
         <v>108</v>
       </c>
       <c r="I76" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q76" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -5671,31 +5674,31 @@
         <v>108</v>
       </c>
       <c r="I77" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q77" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -5730,31 +5733,31 @@
         <v>108</v>
       </c>
       <c r="I78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q78" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -5789,31 +5792,31 @@
         <v>108</v>
       </c>
       <c r="I79" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K79" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q79" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -5848,31 +5851,31 @@
         <v>108</v>
       </c>
       <c r="I80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q80" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R80">
         <v>0</v>
@@ -5907,31 +5910,31 @@
         <v>108</v>
       </c>
       <c r="I81" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K81" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R81">
         <v>0</v>
@@ -5966,31 +5969,31 @@
         <v>108</v>
       </c>
       <c r="I82" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q82" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -6025,31 +6028,31 @@
         <v>108</v>
       </c>
       <c r="I83" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -6084,31 +6087,31 @@
         <v>108</v>
       </c>
       <c r="I84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K84" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q84" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -6143,31 +6146,31 @@
         <v>108</v>
       </c>
       <c r="I85" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L85" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q85" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -6202,31 +6205,31 @@
         <v>108</v>
       </c>
       <c r="I86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q86" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -6261,31 +6264,31 @@
         <v>108</v>
       </c>
       <c r="I87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q87" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -6320,31 +6323,31 @@
         <v>108</v>
       </c>
       <c r="I88" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K88" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M88" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N88" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q88" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R88">
         <v>0</v>
@@ -6379,31 +6382,31 @@
         <v>108</v>
       </c>
       <c r="I89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M89" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N89" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q89" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R89">
         <v>0</v>
